--- a/metadata/plate_metadata/20250519_well_metadata.xlsx
+++ b/metadata/plate_metadata/20250519_well_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marazzanocolon/Documents/PhD Folder/morphSeq/YX1_imaging_plates/yes-genotyped/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585E5291-6222-3740-9536-311FEB315317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BA74E1-FA36-F942-B43C-54E001A51AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="1920" windowWidth="25880" windowHeight="18080" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3680" yWindow="1920" windowWidth="25880" windowHeight="18080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="medium" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>s</t>
   </si>
   <si>
-    <t>b9d2_unkown</t>
-  </si>
-  <si>
     <t>b9d2_homozygous</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>b9d2_wildtype</t>
+  </si>
+  <si>
+    <t>b9d2_unknown</t>
   </si>
 </sst>
 </file>
@@ -2102,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2158,37 +2158,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="L2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" s="5"/>
     </row>
@@ -2197,37 +2197,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="L3" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M3" s="5"/>
     </row>
@@ -2236,37 +2236,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="M4" s="5"/>
     </row>
@@ -2275,37 +2275,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M5" s="5"/>
     </row>
@@ -2314,37 +2314,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6" s="5"/>
     </row>
@@ -2353,34 +2353,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -2390,34 +2390,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -2427,34 +2427,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="I9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -4124,7 +4124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B9B45D-7FE5-614B-AB49-50CA69AE47EE}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
